--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,26 +502,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Your Coach</t>
+          <t>Officer Friendly</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marsh</t>
+          <t>Masi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -532,45 +532,45 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1841.36</v>
+        <v>2030.34</v>
       </c>
       <c r="J2" t="n">
-        <v>1790.3</v>
+        <v>1678.48</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>#Trash_Commish</t>
+          <t>Highlands Hooligan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Masi</t>
+          <t>Shoey</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -581,95 +581,95 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1978.36</v>
+        <v>1830.16</v>
       </c>
       <c r="J3" t="n">
-        <v>1656.44</v>
+        <v>1650.04</v>
       </c>
       <c r="K3" t="n">
         <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Golden Rams Fam</t>
+          <t>Your Coach</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shoey</t>
+          <t>Marsh</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1848</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1708.72</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1824.06</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1799.68</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
       <c r="L4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>L-3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>Natural Athlete</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
         <v>6</v>
       </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
@@ -679,45 +679,45 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1767.56</v>
+        <v>1829.92</v>
       </c>
       <c r="J5" t="n">
-        <v>1727.72</v>
+        <v>1800.84</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>W-4</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AngelLikeMoniBoloni</t>
+          <t>Head Coach</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>Ciggy</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -728,26 +728,26 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1841.04</v>
+        <v>1767.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1760.78</v>
+        <v>1704.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -777,94 +777,94 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1700.24</v>
+        <v>1691.46</v>
       </c>
       <c r="J7" t="n">
-        <v>1673.32</v>
+        <v>1710.3</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>Burgs downfall</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1554</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1801.98</v>
+      </c>
+      <c r="K8" t="n">
         <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1699.74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1811.98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>27</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mollywhoppin</t>
+          <t>AngelLikeMoniBoloni</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stew</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -875,45 +875,45 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1713.76</v>
+        <v>1705.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1839.98</v>
+        <v>1886.54</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Burg’sHugeDitkaInAsh</t>
+          <t>Out of Timers</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Burg</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1670.96</v>
+        <v>1597.72</v>
       </c>
       <c r="J10" t="n">
-        <v>1837.38</v>
+        <v>1566.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L-4</t>
+          <t>W-3</t>
         </is>
       </c>
     </row>
@@ -946,72 +946,72 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Route 28 Speed Walkers</t>
+          <t>Your Coach</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>Marsh</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1646.68</v>
+        <v>1841.36</v>
       </c>
       <c r="J11" t="n">
-        <v>1786.18</v>
+        <v>1790.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L-4</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AngelLikeMoniBoloni</t>
+          <t>#Trash_Commish</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>Masi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1022,45 +1022,45 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1785.8</v>
+        <v>1978.36</v>
       </c>
       <c r="J12" t="n">
-        <v>1539.88</v>
+        <v>1656.44</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Officer Friendly</t>
+          <t>Golden Rams Fam</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Masi</t>
+          <t>Shoey</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1071,45 +1071,45 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1721.42</v>
+        <v>1824.06</v>
       </c>
       <c r="J13" t="n">
-        <v>1655.38</v>
+        <v>1799.68</v>
       </c>
       <c r="K13" t="n">
         <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>W-4</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CeeDeezNutsAsh</t>
+          <t>Shmo Stars</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Burg</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1120,42 +1120,42 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1646.86</v>
+        <v>1767.56</v>
       </c>
       <c r="J14" t="n">
-        <v>1645.54</v>
+        <v>1727.72</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>W-4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The Environmentalist</t>
+          <t>AngelLikeMoniBoloni</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marsh</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
@@ -1169,45 +1169,45 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1859.82</v>
+        <v>1841.04</v>
       </c>
       <c r="J15" t="n">
-        <v>1674.3</v>
+        <v>1760.78</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mollywhoppin</t>
+          <t>Trash sandwich</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stew</t>
+          <t>Jake</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1218,91 +1218,91 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1774.24</v>
+        <v>1700.24</v>
       </c>
       <c r="J16" t="n">
-        <v>1621.62</v>
+        <v>1673.32</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Handy Man Kanaan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Shmo Stars</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1764.28</v>
+        <v>1699.74</v>
       </c>
       <c r="J17" t="n">
-        <v>1638.12</v>
+        <v>1811.98</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Golden Rams Fam</t>
+          <t>mollywhoppin</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shoey</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>8</v>
@@ -1316,82 +1316,82 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1619.74</v>
+        <v>1713.76</v>
       </c>
       <c r="J18" t="n">
-        <v>1703.84</v>
+        <v>1839.98</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L-4</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Trash sandwich</t>
+          <t>Burg’sHugeDitkaInAsh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jake</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1670.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1837.38</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>12</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1362.54</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1810.64</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>L-4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fishy Fishy</t>
+          <t>Route 28 Speed Walkers</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1414,20 +1414,20 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1595.44</v>
+        <v>1646.68</v>
       </c>
       <c r="J20" t="n">
-        <v>1694.42</v>
+        <v>1786.18</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-4</t>
         </is>
       </c>
     </row>
@@ -1436,72 +1436,72 @@
         <v>2020</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>AngelLikeMoniBoloni</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1549.54</v>
+        <v>1785.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1695.94</v>
+        <v>1539.88</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>My team</t>
+          <t>Officer Friendly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jake</t>
+          <t>Masi</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1720.46</v>
+        <v>1721.42</v>
       </c>
       <c r="J22" t="n">
-        <v>1603.14</v>
+        <v>1655.38</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>W-4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>CeeDeezNutsAsh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1561,29 +1561,29 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1652.94</v>
+        <v>1646.86</v>
       </c>
       <c r="J23" t="n">
-        <v>1501.02</v>
+        <v>1645.54</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>W-5</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1596,59 +1596,59 @@
         </is>
       </c>
       <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1859.82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1674.3</v>
+      </c>
+      <c r="K24" t="n">
         <v>9</v>
       </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1864.54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1715.32</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8</v>
-      </c>
       <c r="L24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L-3</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Officer Friendly</t>
+          <t>mollywhoppin</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Masi</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1659,46 +1659,46 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1880.58</v>
+        <v>1774.24</v>
       </c>
       <c r="J25" t="n">
-        <v>1584.16</v>
+        <v>1621.62</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>W-3</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mollywhoppin</t>
+          <t>Shmo Stars</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stew</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
         <v>6</v>
       </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -1708,143 +1708,143 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1563.6</v>
+        <v>1764.28</v>
       </c>
       <c r="J26" t="n">
-        <v>1583.8</v>
+        <v>1638.12</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BurgsChubbInAshley</t>
+          <t>Golden Rams Fam</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Burg</t>
+          <t>Shoey</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1562.16</v>
+        <v>1619.74</v>
       </c>
       <c r="J27" t="n">
-        <v>1633.3</v>
+        <v>1703.84</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>L-4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AngelLikeMoniBoloni</t>
+          <t>Trash sandwich</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>Jake</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1362.54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1810.64</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
         <v>5</v>
       </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1670.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1657.42</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>10</v>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>W-4</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Golden Rams Fam</t>
+          <t>Fishy Fishy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shoey</t>
+          <t>Ciggy</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1855,45 +1855,45 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1390.8</v>
+        <v>1595.44</v>
       </c>
       <c r="J29" t="n">
-        <v>1815.98</v>
+        <v>1694.42</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L-13</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Captain poopy shoes</t>
+          <t>Handy Man Kanaan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1904,20 +1904,20 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1573.42</v>
+        <v>1549.54</v>
       </c>
       <c r="J30" t="n">
-        <v>1684.86</v>
+        <v>1695.94</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
@@ -1926,72 +1926,72 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>My team</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Jake</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1466.14</v>
+        <v>1720.46</v>
       </c>
       <c r="J31" t="n">
-        <v>1566.14</v>
+        <v>1603.14</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L-3</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>My team</t>
+          <t>Shmo Stars</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jake</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2002,45 +2002,45 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1634.86</v>
+        <v>1652.94</v>
       </c>
       <c r="J32" t="n">
-        <v>1681.4</v>
+        <v>1501.02</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>W-5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>The Environmentalist</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Marsh</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1757.68</v>
+        <v>1864.54</v>
       </c>
       <c r="J33" t="n">
-        <v>1749.18</v>
+        <v>1715.32</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2070,27 +2070,27 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Officer Friendly</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Masi</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>The Environmentalist</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Marsh</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1962.32</v>
+        <v>1880.58</v>
       </c>
       <c r="J34" t="n">
-        <v>1687.46</v>
+        <v>1584.16</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2119,26 +2119,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Golden Rams Fam</t>
+          <t>mollywhoppin</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shoey</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2149,45 +2149,45 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2015.86</v>
+        <v>1563.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1659.74</v>
+        <v>1583.8</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>W-3</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>BurgsChubbInAshley</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2198,94 +2198,94 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1815.26</v>
+        <v>1562.16</v>
       </c>
       <c r="J36" t="n">
-        <v>1708.8</v>
+        <v>1633.3</v>
       </c>
       <c r="K36" t="n">
         <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ray’s Burger’s</t>
+          <t>AngelLikeMoniBoloni</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Burg</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1738.5</v>
+        <v>1670.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1664.98</v>
+        <v>1657.42</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>W-4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Captain poopy shoes</t>
+          <t>Golden Rams Fam</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>Shoey</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2296,45 +2296,45 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1634.76</v>
+        <v>1390.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1657.28</v>
+        <v>1815.98</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BurgGotSmallwood</t>
+          <t>Captain poopy shoes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>Ciggy</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2345,45 +2345,45 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1634.54</v>
+        <v>1573.42</v>
       </c>
       <c r="J39" t="n">
-        <v>1783.42</v>
+        <v>1684.86</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L-4</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Officer Friendly</t>
+          <t>Handy Man Kanaan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Masi</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2394,20 +2394,20 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1589.02</v>
+        <v>1466.14</v>
       </c>
       <c r="J40" t="n">
-        <v>1658.6</v>
+        <v>1566.14</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>L-3</t>
         </is>
       </c>
     </row>
@@ -2416,72 +2416,72 @@
         <v>2018</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>mollywhoppin</t>
+          <t>My team</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Stew</t>
+          <t>Jake</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1429.9</v>
+        <v>1634.86</v>
       </c>
       <c r="J41" t="n">
-        <v>1961.84</v>
+        <v>1681.4</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L-5</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JenLuckMeLongTime</t>
+          <t>Handy Man Kanaan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2492,45 +2492,45 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1654.28</v>
+        <v>1757.68</v>
       </c>
       <c r="J42" t="n">
-        <v>1539.06</v>
+        <v>1749.18</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>W-4</t>
+          <t>L-3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Clyde's and Patty's</t>
+          <t>The Environmentalist</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Marsh</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2541,46 +2541,46 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1493.62</v>
+        <v>1962.32</v>
       </c>
       <c r="J43" t="n">
-        <v>1623.42</v>
+        <v>1687.46</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Golden Rams Fam</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Shoey</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>mollywhoppin</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Stew</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -2590,46 +2590,46 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1467.06</v>
+        <v>2015.86</v>
       </c>
       <c r="J44" t="n">
-        <v>1442.52</v>
+        <v>1659.74</v>
       </c>
       <c r="K44" t="n">
         <v>9</v>
       </c>
       <c r="L44" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Shmo Stars</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Officer Friendly</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Masi</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
-      </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
@@ -2639,16 +2639,16 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1594.72</v>
+        <v>1815.26</v>
       </c>
       <c r="J45" t="n">
-        <v>1440.46</v>
+        <v>1708.8</v>
       </c>
       <c r="K45" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2658,19 +2658,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>Ray’s Burger’s</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2688,16 +2688,16 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1587.14</v>
+        <v>1738.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1466.4</v>
+        <v>1664.98</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2707,75 +2707,75 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The Environmentalist</t>
+          <t>Captain poopy shoes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Marsh</t>
+          <t>Ciggy</t>
         </is>
       </c>
       <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1634.76</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1657.28</v>
+      </c>
+      <c r="K47" t="n">
         <v>7</v>
       </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1634.58</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1562.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
       <c r="L47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>BurgGotSmallwood</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2786,45 +2786,45 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1366.3</v>
+        <v>1634.54</v>
       </c>
       <c r="J48" t="n">
-        <v>1393.72</v>
+        <v>1783.42</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Captain poopy shoes</t>
+          <t>Officer Friendly</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>Masi</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2835,45 +2835,45 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1563.9</v>
+        <v>1589.02</v>
       </c>
       <c r="J49" t="n">
-        <v>1585.42</v>
+        <v>1658.6</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BmyL on Ashley'sTD's</t>
+          <t>mollywhoppin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Burg</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2884,20 +2884,20 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1433.7</v>
+        <v>1429.9</v>
       </c>
       <c r="J50" t="n">
-        <v>1605.72</v>
+        <v>1961.84</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-5</t>
         </is>
       </c>
     </row>
@@ -2906,72 +2906,72 @@
         <v>2017</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The SmackDown Hotel</t>
+          <t>JenLuckMeLongTime</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Het</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1504.38</v>
+        <v>1654.28</v>
       </c>
       <c r="J51" t="n">
-        <v>1640.66</v>
+        <v>1539.06</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L-4</t>
+          <t>W-4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AshleyGivesWoodHead</t>
+          <t>Clyde's and Patty's</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Burg</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2982,38 +2982,38 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1750.12</v>
+        <v>1493.62</v>
       </c>
       <c r="J52" t="n">
-        <v>1495.22</v>
+        <v>1623.42</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>W-3</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>mollywhoppin</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -3031,29 +3031,29 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1721.68</v>
+        <v>1467.06</v>
       </c>
       <c r="J53" t="n">
-        <v>1512.18</v>
+        <v>1442.52</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L53" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>W-4</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3080,38 +3080,38 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1747.14</v>
+        <v>1594.72</v>
       </c>
       <c r="J54" t="n">
-        <v>1506.24</v>
+        <v>1440.46</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>W-3</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JenLikeDeezBeforeTs</t>
+          <t>Handy Man Kanaan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -3129,45 +3129,45 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1444.52</v>
+        <v>1587.14</v>
       </c>
       <c r="J55" t="n">
-        <v>1518.34</v>
+        <v>1466.4</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>mollywhoppin</t>
+          <t>The Environmentalist</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Stew</t>
+          <t>Marsh</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3178,16 +3178,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1614.12</v>
+        <v>1634.58</v>
       </c>
       <c r="J56" t="n">
-        <v>1577.5</v>
+        <v>1562.3</v>
       </c>
       <c r="K56" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3197,124 +3197,124 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>The Environmentalist</t>
+          <t>Shmo Stars</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Marsh</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1605.86</v>
+        <v>1366.3</v>
       </c>
       <c r="J57" t="n">
-        <v>1427.56</v>
+        <v>1393.72</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Captain poopy shoes</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Ciggy</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
         <v>7</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SWOLE Team Six</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Het</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>7</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1563.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1585.42</v>
+      </c>
+      <c r="K58" t="n">
         <v>6</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1579.38</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1440.4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5</v>
       </c>
       <c r="L58" t="n">
         <v>25</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L-3</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>BmyL on Ashley'sTD's</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3325,45 +3325,45 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1563.6</v>
+        <v>1433.7</v>
       </c>
       <c r="J59" t="n">
-        <v>1430.7</v>
+        <v>1605.72</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Down Set Smut</t>
+          <t>The SmackDown Hotel</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>Het</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1699.56</v>
+        <v>1504.38</v>
       </c>
       <c r="J60" t="n">
-        <v>1717.5</v>
+        <v>1640.66</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L60" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -3396,65 +3396,65 @@
         <v>2016</v>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Arken rens</t>
+          <t>AshleyGivesWoodHead</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dane</t>
+          <t>Burg</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>429.84</v>
+        <v>1750.12</v>
       </c>
       <c r="J61" t="n">
-        <v>1530.18</v>
+        <v>1495.22</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L-12</t>
+          <t>W-3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Officer Friendly</t>
+          <t>Handy Man Kanaan</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Masi</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3472,136 +3472,136 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1525.98</v>
+        <v>1721.68</v>
       </c>
       <c r="J62" t="n">
-        <v>1380</v>
+        <v>1512.18</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>W-3</t>
+          <t>W-4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Handy Man Kanaan</t>
+          <t>Officer Friendly</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Masi</t>
         </is>
       </c>
       <c r="E63" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1747.14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1506.24</v>
+      </c>
+      <c r="K63" t="n">
         <v>7</v>
       </c>
-      <c r="F63" t="n">
-        <v>6</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1681.64</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1617.88</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9</v>
-      </c>
       <c r="L63" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>W-3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B64" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>JenLikeDeezBeforeTs</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Moni</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1444.52</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1518.34</v>
+      </c>
+      <c r="K64" t="n">
         <v>3</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>AshleysTDs&amp;Pouncey</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Burg</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1601.28</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1468.12</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12</v>
-      </c>
       <c r="L64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>W-6</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>kyle's Team</t>
+          <t>mollywhoppin</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Stew</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3619,38 +3619,38 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1563.28</v>
+        <v>1614.12</v>
       </c>
       <c r="J65" t="n">
-        <v>1554.46</v>
+        <v>1577.5</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L65" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>W-4</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>The Environmentalist</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Marsh</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3668,38 +3668,38 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1593.88</v>
+        <v>1605.86</v>
       </c>
       <c r="J66" t="n">
-        <v>1526.36</v>
+        <v>1427.56</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JenLikeDeezBeforeTs</t>
+          <t>SWOLE Team Six</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Moni</t>
+          <t>Het</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3713,49 +3713,49 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1570.88</v>
+        <v>1579.38</v>
       </c>
       <c r="J67" t="n">
-        <v>1626.74</v>
+        <v>1440.4</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>mollywhoppin</t>
+          <t>Shmo Stars</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Stew</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3766,16 +3766,16 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1578.18</v>
+        <v>1563.6</v>
       </c>
       <c r="J68" t="n">
-        <v>1642.28</v>
+        <v>1430.7</v>
       </c>
       <c r="K68" t="n">
         <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -3785,26 +3785,26 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>New Kens Russian</t>
+          <t>Down Set Smut</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Phil</t>
+          <t>Ciggy</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3815,45 +3815,45 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1624.2</v>
+        <v>1699.56</v>
       </c>
       <c r="J69" t="n">
-        <v>1704.9</v>
+        <v>1717.5</v>
       </c>
       <c r="K69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The Environmentalist</t>
+          <t>Arken rens</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Marsh</t>
+          <t>Dane</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3864,20 +3864,20 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1568.92</v>
+        <v>429.84</v>
       </c>
       <c r="J70" t="n">
-        <v>1468.58</v>
+        <v>1530.18</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-12</t>
         </is>
       </c>
     </row>
@@ -3886,47 +3886,47 @@
         <v>2015</v>
       </c>
       <c r="B71" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Down Set Smut</t>
+          <t>Officer Friendly</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>Masi</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1531.34</v>
+        <v>1525.98</v>
       </c>
       <c r="J71" t="n">
-        <v>1583.92</v>
+        <v>1380</v>
       </c>
       <c r="K71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>W-3</t>
         </is>
       </c>
     </row>
@@ -3935,47 +3935,47 @@
         <v>2015</v>
       </c>
       <c r="B72" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Chew...PILL!</t>
+          <t>Handy Man Kanaan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Het</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1602.22</v>
+        <v>1681.64</v>
       </c>
       <c r="J72" t="n">
-        <v>1672.56</v>
+        <v>1617.88</v>
       </c>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
         <v>25</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>L-5</t>
+          <t>W-2</t>
         </is>
       </c>
     </row>
@@ -3984,72 +3984,72 @@
         <v>2015</v>
       </c>
       <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AshleysTDs&amp;Pouncey</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Burg</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1601.28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1468.12</v>
+      </c>
+      <c r="K73" t="n">
         <v>12</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>BALLZ DEEP</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1450.74</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1646.74</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
       <c r="L73" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L-2</t>
+          <t>W-6</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Shmo Stars</t>
+          <t>kyle's Team</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -4060,45 +4060,45 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1739.14</v>
+        <v>1563.28</v>
       </c>
       <c r="J74" t="n">
-        <v>1628.26</v>
+        <v>1554.46</v>
       </c>
       <c r="K74" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L74" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>W-7</t>
+          <t>W-4</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Officer Friendly</t>
+          <t>Shmo Stars</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Masi</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -4109,241 +4109,241 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1726.6</v>
+        <v>1593.88</v>
       </c>
       <c r="J75" t="n">
-        <v>1618.6</v>
+        <v>1526.36</v>
       </c>
       <c r="K75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Down Set Smut</t>
+          <t>JenLikeDeezBeforeTs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ciggy</t>
+          <t>Moni</t>
         </is>
       </c>
       <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1570.88</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1626.74</v>
+      </c>
+      <c r="K76" t="n">
         <v>10</v>
       </c>
-      <c r="F76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1870.04</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1556.32</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4</v>
-      </c>
       <c r="L76" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>W-2</t>
+          <t>W-1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>mollywhoppin</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Stew</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1578.18</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1642.28</v>
+      </c>
+      <c r="K77" t="n">
         <v>4</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>mollywhoppin</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Stew</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1854.68</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1666.06</v>
-      </c>
-      <c r="K77" t="n">
-        <v>8</v>
-      </c>
       <c r="L77" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L-1</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AK shine squad</t>
+          <t>New Kens Russian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>Phil</t>
         </is>
       </c>
       <c r="E78" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" t="n">
         <v>7</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1624.2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1704.9</v>
+      </c>
+      <c r="K78" t="n">
         <v>6</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1597.66</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1612.82</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7</v>
-      </c>
       <c r="L78" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>W-1</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>The Environmentalist</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Marsh</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" t="n">
         <v>6</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>WE DEM BOYZ</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Kyle</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>6</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1568.92</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1468.58</v>
+      </c>
+      <c r="K79" t="n">
         <v>7</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1521.54</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1590.54</v>
-      </c>
-      <c r="K79" t="n">
-        <v>5</v>
-      </c>
       <c r="L79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L-4</t>
+          <t>L-1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B80" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Down Set Smut</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ciggy</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>7</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Ashley's Pouncey</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Burg</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>5</v>
-      </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1604.58</v>
+        <v>1531.34</v>
       </c>
       <c r="J80" t="n">
-        <v>1684.96</v>
+        <v>1583.92</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L80" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -4373,26 +4373,26 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>More Than You</t>
+          <t>Chew...PILL!</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Marsh</t>
+          <t>Het</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4403,45 +4403,45 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1478.38</v>
+        <v>1602.22</v>
       </c>
       <c r="J81" t="n">
-        <v>1749.38</v>
+        <v>1672.56</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L-7</t>
+          <t>L-5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Can I Get Some Reps?</t>
+          <t>BALLZ DEEP</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Het</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4452,20 +4452,20 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1508</v>
+        <v>1450.74</v>
       </c>
       <c r="J82" t="n">
-        <v>1649.48</v>
+        <v>1646.74</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>W-3</t>
+          <t>L-2</t>
         </is>
       </c>
     </row>
@@ -4474,45 +4474,486 @@
         <v>2014</v>
       </c>
       <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Shmo Stars</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1739.14</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1628.26</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9</v>
+      </c>
+      <c r="L83" t="n">
+        <v>20</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>W-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Officer Friendly</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Masi</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1726.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1618.6</v>
+      </c>
+      <c r="K84" t="n">
         <v>10</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="L84" t="n">
+        <v>17</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>L-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Down Set Smut</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ciggy</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1870.04</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1556.32</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>12</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>W-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>mollywhoppin</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Stew</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1854.68</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1666.06</v>
+      </c>
+      <c r="K86" t="n">
+        <v>8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>17</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>L-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>AK shine squad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1597.66</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1612.82</v>
+      </c>
+      <c r="K87" t="n">
+        <v>7</v>
+      </c>
+      <c r="L87" t="n">
+        <v>22</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>W-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>WE DEM BOYZ</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1521.54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1590.54</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>25</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>L-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ashley's Pouncey</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Burg</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1604.58</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1684.96</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>11</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>L-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>More Than You</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Marsh</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1478.38</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1749.38</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>12</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>L-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Can I Get Some Reps?</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Het</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1508</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1649.48</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3</v>
+      </c>
+      <c r="L91" t="n">
+        <v>16</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>W-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>Shine Squad</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Moni</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="E92" t="n">
         <v>5</v>
       </c>
-      <c r="F83" t="n">
-        <v>8</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I83" t="n">
+      <c r="I92" t="n">
         <v>1658.28</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J92" t="n">
         <v>1802.48</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K92" t="n">
         <v>6</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L92" t="n">
         <v>18</v>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>W-1</t>
         </is>
